--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_10_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_10_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>48327.59179960471</v>
+        <v>9617190.768121339</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>48327.59179960471</v>
+        <v>9617190.768121339</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2532.716321788876</v>
+        <v>155843.22110476</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2532.716321788876</v>
+        <v>155843.22110476</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1342216676.427964</v>
+        <v>54603819.1610657</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10922.74756976681</v>
+        <v>1192762.610655259</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21270.78624828187</v>
+        <v>2295235.678079884</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31616.05320962521</v>
+        <v>3397157.173787338</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>42408.86199996645</v>
+        <v>4512721.9624986</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>53131.58594182284</v>
+        <v>5614339.866361376</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>63854.30988367922</v>
+        <v>6715957.770224151</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>74577.03382553559</v>
+        <v>7817575.674086923</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>85299.75776739197</v>
+        <v>8919193.577949692</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>96581.36778541173</v>
+        <v>10010129.07453974</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>107763.1420363546</v>
+        <v>11087324.35388534</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>118722.8767054824</v>
+        <v>12189279.26417636</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>129367.2295564283</v>
+        <v>13277287.2896189</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>140081.6672558591</v>
+        <v>14379242.19990993</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>150796.1049552899</v>
+        <v>15481197.11020096</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>161525.744415818</v>
+        <v>16580373.39225374</v>
       </c>
     </row>
   </sheetData>
